--- a/dataset/output.xlsx
+++ b/dataset/output.xlsx
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1157,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1421,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2477,7 +2477,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2609,7 +2609,7 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -2697,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54">
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
